--- a/Ing_economica/Repaso3/3. REPASO TERCEL PARCIAL.xlsx
+++ b/Ing_economica/Repaso3/3. REPASO TERCEL PARCIAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Empresas Agrícolas\Documents\UVG\2022\PRIMER CICLO\INGENIERÍA ECONÓMICA 40\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Ing_economica\Repaso3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B13D812-2DB8-4BE3-BD0F-3032AAA3AA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F75367D-710C-49FB-A539-5B724A20881A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{FE3964B7-96A5-BD4C-96C0-30A38C5E4F33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{FE3964B7-96A5-BD4C-96C0-30A38C5E4F33}"/>
   </bookViews>
   <sheets>
     <sheet name="PROBLEMA1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+  <si>
+    <t>TIR</t>
+  </si>
+  <si>
+    <t>Descartes:</t>
+  </si>
+  <si>
+    <t>Norstrom:</t>
+  </si>
+  <si>
+    <t>Valor I</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>FNE</t>
+  </si>
+  <si>
+    <t>FEA</t>
+  </si>
+  <si>
+    <t>Indica hasta 2 posible cambios (FNE)</t>
+  </si>
+  <si>
+    <t>Empieza negativo y tiene un cambio de signo</t>
+  </si>
+  <si>
+    <t>Años</t>
+  </si>
+  <si>
+    <t>Maquina A</t>
+  </si>
+  <si>
+    <t>Maquina B</t>
+  </si>
+  <si>
+    <t>i (anual)</t>
+  </si>
+  <si>
+    <t>TMAR</t>
+  </si>
+  <si>
+    <t>B-A</t>
+  </si>
+  <si>
+    <t>Se justifica el cambio ya que es por encima de la TMAR</t>
+  </si>
+  <si>
+    <t>Estimacion i*</t>
+  </si>
+  <si>
+    <t>VP A</t>
+  </si>
+  <si>
+    <t>VP B</t>
+  </si>
+  <si>
+    <t>VP incremental</t>
+  </si>
+  <si>
+    <t>i efectiva de impuestas</t>
+  </si>
+  <si>
+    <t>Antes impuestos</t>
+  </si>
+  <si>
+    <t>Despues impuestos</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,16 +129,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -69,16 +159,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -93,6 +210,2001 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PROBLEMA1!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PROBLEMA1!$F$15:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PROBLEMA1!$G$15:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-35398.771320762819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9614.0893675254683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3440.3292181070046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9655.2734375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12160.320370290807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12659.181357855348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12096.047855921752</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9668.4651040706376</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8267.4929059738824</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6887.7752475279849</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5576.5174897119323</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4355.84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1278.6934015588758</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>435.00303176579655</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-329.21810699588241</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1021.5326329446525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5988-4CFA-89BC-CC60FB5C4B7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1884136288"/>
+        <c:axId val="1895258272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1884136288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1895258272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1895258272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1884136288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PROBLEMA3!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PROBLEMA3!$F$16:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PROBLEMA3!$G$16:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-91200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-83820.299159893446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-78085.648148148146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-73548.58023178461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-69900.874635568514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32EB-470E-B330-C4553DFF9B93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PROBLEMA3!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PROBLEMA3!$F$16:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PROBLEMA3!$H$16:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-67800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-70607.6770712383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-72319.444444444438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-73397.955253667591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-74095.376926280718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32EB-470E-B330-C4553DFF9B93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PROBLEMA3!$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PROBLEMA3!$F$16:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PROBLEMA3!$I$16:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13212.622088655138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5766.203703703708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.62497811701178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4194.5022907122038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-32EB-470E-B330-C4553DFF9B93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="939303248"/>
+        <c:axId val="934355840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="939303248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934355840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="934355840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="939303248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -100,15 +2212,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -150,6 +2262,42 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>811530</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A2F52F-8546-2535-93FA-503F5CD328F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -166,9 +2314,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>129540</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -225,10 +2373,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>449580</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -270,6 +2418,42 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E8965B-F3E8-BAD8-4440-F22199720FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -285,8 +2469,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>632460</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -630,22 +2814,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077DA2F6-9BBE-6B49-9B7A-B52FB37F67F5}">
-  <dimension ref="I6:I8"/>
+  <dimension ref="C6:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="9:9" ht="61.5" x14ac:dyDescent="0.9">
+    <row r="6" spans="3:10" ht="61.2" x14ac:dyDescent="1.1000000000000001">
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="9:9" ht="61.5" x14ac:dyDescent="0.9">
+    <row r="7" spans="3:10" ht="61.2" x14ac:dyDescent="1.1000000000000001">
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="9:9" ht="61.5" x14ac:dyDescent="0.9">
+    <row r="8" spans="3:10" ht="61.2" x14ac:dyDescent="1.1000000000000001">
       <c r="I8" s="1"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-12000</v>
+      </c>
+      <c r="E15" s="2">
+        <f>D15</f>
+        <v>-12000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-0.35</v>
+      </c>
+      <c r="G15" s="2">
+        <f>NPV(F15,$D$16:$D$20)+$D$15</f>
+        <v>-35398.771320762819</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="2">
+        <f>E15+D16</f>
+        <v>-2000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16:G31" si="0">NPV(F16,$D$16:$D$20)+$D$15</f>
+        <v>-9614.0893675254683</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E20" si="1">E16+D17</f>
+        <v>-2000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>3440.3292181070046</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>9655.2734375</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>48000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>12160.320370290807</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-37000</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>12659.181357855348</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <f>IRR(D15:D20)</f>
+        <v>0.47785100250079893</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>12096.047855921752</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="4">
+        <f>IRR(D15:D20,-0.3)</f>
+        <v>-0.26694982802367795</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>9668.4651040706376</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>8267.4929059738824</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>6887.7752475279849</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>5576.5174897119323</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F27" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>4355.84</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>1278.6934015588758</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>435.00303176579655</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>-329.21810699588241</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>-1021.5326329446525</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -660,15 +3098,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
+                <xdr:colOff>45720</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>144780</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -684,12 +3122,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09714146-D2E9-CD4F-87B1-E7B34C84DA17}">
-  <dimension ref="A1"/>
+  <dimension ref="B8:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <f>IRR(C9:C24)</f>
+        <v>6.2990379289627585E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -708,9 +3294,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:colOff>129540</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -726,23 +3312,232 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059F786B-EFC2-324E-8EA7-846D83EA8C0A}">
-  <dimension ref="A1"/>
+  <dimension ref="B14:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-45000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-75000</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>-30000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f>NPV(F16,$C$17:$C$20)+$C$16</f>
+        <v>-91200</v>
+      </c>
+      <c r="H16" s="2">
+        <f>NPV(F16,$D$17:$D$20)+$D$16</f>
+        <v>-67800</v>
+      </c>
+      <c r="I16" s="2">
+        <f>NPV(F16,$E$17:$E$20)+$E$16</f>
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-4800</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-1200</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E20" si="0">D17-C17</f>
+        <v>3600</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17:G20" si="1">NPV(F17,$C$17:$C$20)+$C$16</f>
+        <v>-83820.299159893446</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" ref="H17:H20" si="2">NPV(F17,$D$17:$D$20)+$D$16</f>
+        <v>-70607.6770712383</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" ref="I17:I20" si="3">NPV(F17,$E$17:$E$20)+$E$16</f>
+        <v>13212.622088655138</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <f>-4800-45000+9000</f>
+        <v>-40800</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>39600</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>-78085.648148148146</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>-72319.444444444438</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>5766.203703703708</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-4800</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-1200</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>-73548.58023178461</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>-73397.955253667591</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>150.62497811701178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <f>-4800+9000</f>
+        <v>4200</v>
+      </c>
+      <c r="D20" s="2">
+        <f>-1200+12000</f>
+        <v>10800</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>-69900.874635568514</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="2"/>
+        <v>-74095.376926280718</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>-4194.5022907122038</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <f>IRR(E16:E20)</f>
+        <v>0.30308162699890961</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="3073" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Word.Document.12" shapeId="3073" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -751,17 +3546,17 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>449580</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="3073" r:id="rId3"/>
+        <oleObject progId="Word.Document.12" shapeId="3073" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -770,14 +3565,241 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3294BF-4DF0-0048-AB9B-ED6CF8F35B0E}">
-  <dimension ref="A1"/>
+  <dimension ref="B9:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D11" s="2">
+        <f>C11</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D12" s="2">
+        <f>C12*(1-$D$9)</f>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:D25" si="0">C13*(1-$D$9)</f>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-120000</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2">
+        <f>-120000-C11</f>
+        <v>-1120000</v>
+      </c>
+      <c r="D26" s="2">
+        <f>D25-1000000</f>
+        <v>-1060000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <f>IRR(C11:C26)</f>
+        <v>0.11999999999999722</v>
+      </c>
+      <c r="D27" s="7">
+        <f>IRR(D11:D26)</f>
+        <v>6.0000000000004494E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -795,8 +3817,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>632460</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
